--- a/data/trans_orig/Q33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q33-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>7.530389290729613</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.103526963795114</v>
+        <v>7.103526963795111</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>7.159525874239168</v>
@@ -681,7 +681,7 @@
         <v>7.093451526479577</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>6.899951450020803</v>
+        <v>6.899951450020804</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>7.295757923961039</v>
@@ -693,7 +693,7 @@
         <v>7.282543140892052</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>6.984758717822419</v>
+        <v>6.984758717822417</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.399987516018975</v>
+        <v>7.389940553522462</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.37153767872914</v>
+        <v>7.370734677284704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.43553211579264</v>
+        <v>7.435029210386842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.000319299637161</v>
+        <v>7.008323886823685</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.087148687006834</v>
+        <v>7.090684028736381</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.933552170905622</v>
+        <v>6.94104772003492</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.000591199265822</v>
+        <v>7.001629550389576</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.825913706918127</v>
+        <v>6.819296104087851</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.243481467873971</v>
+        <v>7.245010303073762</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7.146859459896778</v>
+        <v>7.143305120774877</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.211763741875274</v>
+        <v>7.210863732008248</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.92421827677309</v>
+        <v>6.922667840869515</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.550340136345764</v>
+        <v>7.542763232162119</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.57537209727483</v>
+        <v>7.574270479260519</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.62497517078759</v>
+        <v>7.624718596116668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.200117021731479</v>
+        <v>7.201567315331314</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.235789097546911</v>
+        <v>7.230020923608823</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.103364778547811</v>
+        <v>7.104635056177153</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.189216125463647</v>
+        <v>7.191121253236334</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.975137477792828</v>
+        <v>6.971636249457584</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.345500040295692</v>
+        <v>7.349470545387591</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.275831717503942</v>
+        <v>7.277328078869949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.34967755702931</v>
+        <v>7.345452278977929</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>7.044526176569087</v>
+        <v>7.044889730882455</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>7.4887577485922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.214780994515855</v>
+        <v>7.214780994515857</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.562415625168911</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.564726589958306</v>
+        <v>7.572574204267941</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.346803063918017</v>
+        <v>7.343265207133267</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.435179120744486</v>
+        <v>7.437532031482744</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.162529791816576</v>
+        <v>7.165204432374161</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.504204888272051</v>
+        <v>7.506865611294905</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.198224385853771</v>
+        <v>7.19736612223206</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.27275561570151</v>
+        <v>7.264478092622523</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.045990892079927</v>
+        <v>7.046165488747579</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>7.552863700617196</v>
+        <v>7.553302435906824</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7.295858679097035</v>
+        <v>7.292790668803967</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.371020818644009</v>
+        <v>7.366749350634533</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>7.116431831275563</v>
+        <v>7.121572241733224</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.668934800201473</v>
+        <v>7.673412827233275</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.455079364670451</v>
+        <v>7.452751488936019</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.54284026208934</v>
+        <v>7.543094028559807</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.265749774453767</v>
+        <v>7.271346226842772</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.613536402519228</v>
+        <v>7.621308501071909</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.315117913647971</v>
+        <v>7.313039092389996</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>7.379959698209364</v>
+        <v>7.372204631123429</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>7.139316930180026</v>
+        <v>7.141120065088864</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.630247455521793</v>
+        <v>7.625514079475143</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7.372843759170473</v>
+        <v>7.370912091128211</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7.443537035670897</v>
+        <v>7.443213581243387</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.189404209684406</v>
+        <v>7.193190671573808</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>7.273819149964525</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>7.04913566200263</v>
+        <v>7.049135662002628</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>7.457375116214671</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.352623635501695</v>
+        <v>7.351621902619939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.109316513406998</v>
+        <v>7.091557246318227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.207585667300617</v>
+        <v>7.215720796747085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.000443781075759</v>
+        <v>7.000982167365384</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.398012899890202</v>
+        <v>7.39565212717418</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.239676964918871</v>
+        <v>7.237866521444332</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.182389089750485</v>
+        <v>7.173942734377092</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.983646476634702</v>
+        <v>6.972387724039629</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.39436740881761</v>
+        <v>7.396227732022729</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.202940720601058</v>
+        <v>7.20277262658503</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.21553071483697</v>
+        <v>7.225337678341384</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.010625141991575</v>
+        <v>7.013519593243558</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.520057589439122</v>
+        <v>7.524271749412094</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.32669373545363</v>
+        <v>7.329107555107199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.39110646516856</v>
+        <v>7.402510217335574</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.168892866330646</v>
+        <v>7.165622460676019</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.577761242206757</v>
+        <v>7.571204094500235</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.454968501884201</v>
+        <v>7.452648017533237</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.371684795637298</v>
+        <v>7.370227149538215</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.133090505467664</v>
+        <v>7.134156658131825</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.51395182858184</v>
+        <v>7.515691234972747</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.354903489600916</v>
+        <v>7.358671664231316</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.354647967804183</v>
+        <v>7.351606270679346</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.120925901936021</v>
+        <v>7.121903981006412</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>7.250882992762602</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>7.043041598190852</v>
+        <v>7.04304159819085</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>7.466740017949354</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.507751500798789</v>
+        <v>7.501545819401818</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.346922645561085</v>
+        <v>7.352523536392358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.423568012639439</v>
+        <v>7.428738248557785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.12946699315617</v>
+        <v>7.129405570008226</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.351807384166651</v>
+        <v>7.349702317614367</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.135745369475027</v>
+        <v>7.134634975737195</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.211192810332097</v>
+        <v>7.205916858295145</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>7.009487485119744</v>
+        <v>7.00425904060069</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.438774241780708</v>
+        <v>7.439050611063082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.253419555272618</v>
+        <v>7.253860639684427</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.326096931348914</v>
+        <v>7.325453325648719</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>7.076437678275537</v>
+        <v>7.078932155739746</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.584901169156474</v>
+        <v>7.583430976396508</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.436753932062132</v>
+        <v>7.442154311383111</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.511060560645041</v>
+        <v>7.509105499071068</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.208104403926177</v>
+        <v>7.212057609091001</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.437348171779035</v>
+        <v>7.434273096222162</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.223609829668298</v>
+        <v>7.224250472520276</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>7.296913669483496</v>
+        <v>7.289884992805137</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>7.081421800642751</v>
+        <v>7.076690318930569</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>7.494042364423814</v>
+        <v>7.49376500174118</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.317319422184753</v>
+        <v>7.315967138594464</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7.387631428600571</v>
+        <v>7.386598361706268</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.131178519585891</v>
+        <v>7.132389041312504</v>
       </c>
     </row>
     <row r="16">
